--- a/data/financial_statements/sofp/LKQ.xlsx
+++ b/data/financial_statements/sofp/LKQ.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -125,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -180,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -490,129 +601,129 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
         <v>269000000</v>
@@ -627,7 +738,7 @@
         <v>274000000</v>
       </c>
       <c r="F2">
-        <v>403000000</v>
+        <v>402703000</v>
       </c>
       <c r="G2">
         <v>328700000</v>
@@ -733,8 +844,8 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
         <v>1051000000</v>
@@ -749,7 +860,7 @@
         <v>1073000000</v>
       </c>
       <c r="F3">
-        <v>1185000000</v>
+        <v>1185004000</v>
       </c>
       <c r="G3">
         <v>1225735000</v>
@@ -855,8 +966,8 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
         <v>2635000000</v>
@@ -871,7 +982,7 @@
         <v>2611000000</v>
       </c>
       <c r="F4">
-        <v>2424000000</v>
+        <v>2423853000</v>
       </c>
       <c r="G4">
         <v>2394147000</v>
@@ -977,8 +1088,8 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
         <v>247000000</v>
@@ -987,7 +1098,7 @@
         <v>255000000</v>
       </c>
       <c r="D5">
-        <v>543000000</v>
+        <v>290000000</v>
       </c>
       <c r="E5">
         <v>297000000</v>
@@ -1018,8 +1129,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>4202000000</v>
@@ -1034,7 +1145,7 @@
         <v>4254000000</v>
       </c>
       <c r="F6">
-        <v>4259000000</v>
+        <v>4259398000</v>
       </c>
       <c r="G6">
         <v>4168534000</v>
@@ -1140,23 +1251,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>2362000000</v>
+        <v>1169000000</v>
       </c>
       <c r="C7">
-        <v>2485000000</v>
+        <v>1217000000</v>
       </c>
       <c r="D7">
-        <v>2557000000</v>
+        <v>1256000000</v>
       </c>
       <c r="E7">
-        <v>2660000000</v>
+        <v>1299000000</v>
       </c>
       <c r="F7">
-        <v>2533000000</v>
+        <v>1192357000</v>
       </c>
       <c r="G7">
         <v>1207156000</v>
@@ -1262,8 +1373,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>146000000</v>
@@ -1278,7 +1389,7 @@
         <v>181000000</v>
       </c>
       <c r="F8">
-        <v>178000000</v>
+        <v>178410000</v>
       </c>
       <c r="G8">
         <v>168467000</v>
@@ -1342,8 +1453,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>4758000000</v>
@@ -1358,7 +1469,7 @@
         <v>5286000000</v>
       </c>
       <c r="F9">
-        <v>5281000000</v>
+        <v>5280900000</v>
       </c>
       <c r="G9">
         <v>5336558000</v>
@@ -1464,8 +1575,8 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
         <v>198000000</v>
@@ -1477,10 +1588,10 @@
         <v>219000000</v>
       </c>
       <c r="E10">
-        <v>193000000</v>
+        <v>225000000</v>
       </c>
       <c r="F10">
-        <v>209000000</v>
+        <v>208731000</v>
       </c>
       <c r="G10">
         <v>189201000</v>
@@ -1586,8 +1697,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>7464000000</v>
@@ -1708,8 +1819,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>11666000000</v>
@@ -1724,7 +1835,7 @@
         <v>12606000000</v>
       </c>
       <c r="F12">
-        <v>12461000000</v>
+        <v>12460860000</v>
       </c>
       <c r="G12">
         <v>12438060000</v>
@@ -1830,8 +1941,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>1356000000</v>
@@ -1846,7 +1957,7 @@
         <v>1176000000</v>
       </c>
       <c r="F13">
-        <v>1263000000</v>
+        <v>1262976000</v>
       </c>
       <c r="G13">
         <v>1191250000</v>
@@ -1952,8 +2063,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>533000000</v>
@@ -2074,23 +2185,23 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
-        <v>231000000</v>
+        <v>50000000</v>
       </c>
       <c r="C15">
-        <v>242000000</v>
+        <v>47000000</v>
       </c>
       <c r="D15">
-        <v>223000000</v>
+        <v>31000000</v>
       </c>
       <c r="E15">
-        <v>238000000</v>
+        <v>35000000</v>
       </c>
       <c r="F15">
-        <v>240000000</v>
+        <v>36815000</v>
       </c>
       <c r="G15">
         <v>90825000</v>
@@ -2196,8 +2307,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="K16">
         <v>274496000</v>
@@ -2228,23 +2339,23 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>764000000</v>
+        <v>231000000</v>
       </c>
       <c r="C17">
-        <v>786000000</v>
+        <v>246000000</v>
       </c>
       <c r="D17">
-        <v>902000000</v>
+        <v>353000000</v>
       </c>
       <c r="E17">
-        <v>752000000</v>
+        <v>219000000</v>
       </c>
       <c r="F17">
-        <v>819000000</v>
+        <v>231397000</v>
       </c>
       <c r="G17">
         <v>216831000</v>
@@ -2350,8 +2461,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>2351000000</v>
@@ -2366,7 +2477,7 @@
         <v>2165000000</v>
       </c>
       <c r="F18">
-        <v>2322000000</v>
+        <v>2322259000</v>
       </c>
       <c r="G18">
         <v>2278156000</v>
@@ -2472,23 +2583,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>3456000000</v>
+        <v>2390000000</v>
       </c>
       <c r="C19">
-        <v>3440000000</v>
+        <v>2313000000</v>
       </c>
       <c r="D19">
-        <v>3841000000</v>
+        <v>2680000000</v>
       </c>
       <c r="E19">
-        <v>3986000000</v>
+        <v>2777000000</v>
       </c>
       <c r="F19">
-        <v>3537000000</v>
+        <v>2348448000</v>
       </c>
       <c r="G19">
         <v>2360685000</v>
@@ -2594,8 +2705,8 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
         <v>246000000</v>
@@ -2607,10 +2718,10 @@
         <v>270000000</v>
       </c>
       <c r="E20">
-        <v>247000000</v>
+        <v>279000000</v>
       </c>
       <c r="F20">
-        <v>281000000</v>
+        <v>280850000</v>
       </c>
       <c r="G20">
         <v>285426000</v>
@@ -2716,8 +2827,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>24000000</v>
@@ -2757,8 +2868,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>312000000</v>
@@ -2770,10 +2881,10 @@
         <v>349000000</v>
       </c>
       <c r="E22">
-        <v>364000000</v>
+        <v>365000000</v>
       </c>
       <c r="F22">
-        <v>378000000</v>
+        <v>378385000</v>
       </c>
       <c r="G22">
         <v>380427000</v>
@@ -2879,8 +2990,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>4038000000</v>
@@ -3001,23 +3112,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>6365000000</v>
+        <v>6389000000</v>
       </c>
       <c r="C24">
-        <v>6505000000</v>
+        <v>6529000000</v>
       </c>
       <c r="D24">
-        <v>6955000000</v>
+        <v>6979000000</v>
       </c>
       <c r="E24">
-        <v>6795000000</v>
+        <v>6819000000</v>
       </c>
       <c r="F24">
-        <v>6519000000</v>
+        <v>6543003000</v>
       </c>
       <c r="G24">
         <v>6544050000</v>
@@ -3123,8 +3234,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>1499000000</v>
@@ -3245,8 +3356,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>3000000</v>
@@ -3261,7 +3372,7 @@
         <v>3000000</v>
       </c>
       <c r="F26">
-        <v>3000000</v>
+        <v>3215000</v>
       </c>
       <c r="G26">
         <v>3212000</v>
@@ -3367,8 +3478,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>6536000000</v>
@@ -3383,7 +3494,7 @@
         <v>5794000000</v>
       </c>
       <c r="F27">
-        <v>5631000000</v>
+        <v>5630632000</v>
       </c>
       <c r="G27">
         <v>5346577000</v>
@@ -3489,8 +3600,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>2237000000</v>
@@ -3542,23 +3653,23 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>5262000000</v>
+        <v>5277000000</v>
       </c>
       <c r="C29">
-        <v>5590000000</v>
+        <v>5605000000</v>
       </c>
       <c r="D29">
-        <v>5784000000</v>
+        <v>5799000000</v>
       </c>
       <c r="E29">
-        <v>5772000000</v>
+        <v>5787000000</v>
       </c>
       <c r="F29">
-        <v>5902000000</v>
+        <v>5917856000</v>
       </c>
       <c r="G29">
         <v>5894009000</v>
@@ -3664,23 +3775,23 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>5262000000</v>
+        <v>5277000000</v>
       </c>
       <c r="C30">
-        <v>5590000000</v>
+        <v>5605000000</v>
       </c>
       <c r="D30">
-        <v>5784000000</v>
+        <v>5799000000</v>
       </c>
       <c r="E30">
-        <v>5772000000</v>
+        <v>5787000000</v>
       </c>
       <c r="F30">
-        <v>5902000000</v>
+        <v>5917857000</v>
       </c>
       <c r="G30">
         <v>5894009000</v>
@@ -3786,8 +3897,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>11666000000</v>
@@ -3908,8 +4019,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>270100000</v>
@@ -4030,8 +4141,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>519000000</v>
@@ -4152,23 +4263,23 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
-        <v>3418000000</v>
+        <v>2171000000</v>
       </c>
       <c r="C34">
-        <v>3417000000</v>
+        <v>2095000000</v>
       </c>
       <c r="D34">
-        <v>3737000000</v>
+        <v>2384000000</v>
       </c>
       <c r="E34">
-        <v>3950000000</v>
+        <v>2538000000</v>
       </c>
       <c r="F34">
-        <v>3374000000</v>
+        <v>1982560000</v>
       </c>
       <c r="G34">
         <v>2122810000</v>
@@ -4274,23 +4385,23 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
-        <v>3687000000</v>
+        <v>2440000000</v>
       </c>
       <c r="C35">
-        <v>3682000000</v>
+        <v>2360000000</v>
       </c>
       <c r="D35">
-        <v>4064000000</v>
+        <v>2711000000</v>
       </c>
       <c r="E35">
-        <v>4224000000</v>
+        <v>2812000000</v>
       </c>
       <c r="F35">
-        <v>3777000000</v>
+        <v>2385263000</v>
       </c>
       <c r="G35">
         <v>2451510000</v>
